--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:30:40+00:00</t>
+    <t>2025-07-11T07:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:36:43+00:00</t>
+    <t>2025-07-11T07:41:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:41:04+00:00</t>
+    <t>2025-07-11T08:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,19 +265,19 @@
     <t>Fiche de Conciliation des Traitements médicamenteux (FCT) rétroactive d'admission</t>
   </si>
   <si>
-    <t>Fiche de Conciliation des Traitements médicamenteux (FCT) : Liste des traitements médicamenteux conciliés à partir du Bilan Médicamenteux (traitements avant l'hospitalisation) et de l'Ordonnance médicale d'Admission (OMA), conforme aux recommandations du [guide de la HAS](https://www.has-sante.fr/jcms/c_2736442/fr/mettre-en-oeuvre-la-conciliation-des-traitements-medicamenteux-en-etablissement-de-sante).
+    <t>Fiche de Conciliation des Traitements médicamenteux (FCT) : Liste des traitements médicamenteux conciliés à partir du Bilan Médicamenteux (traitements avant l'hospitalisation) et du Traitement Médicamenteux Courant, conforme aux recommandations du [guide de la HAS](https://www.has-sante.fr/jcms/c_2736442/fr/mettre-en-oeuvre-la-conciliation-des-traitements-medicamenteux-en-etablissement-de-sante).
 - référence le Bilan Médicamenteux ;
-- référence l'Ordonnance médicale d'Admission (OMA) ;
+- référence le Traitement Médicamenteux Courant ;
 - liste des lignes de traitement conciliées avec, pour chacune,
   - la référence à la ligne de traitement médicamenteux du Bilan Médicamenteux si elle existe,
-  - la référence à la ligne de traitement médicamenteux de l'OMA si elle existe,
+  - la référence à la ligne de traitement médicamenteux du Traitement Médicamenteux Courant si elle existe,
   - au moins une de ces deux lignes doit exister et être référencée,
   - ses propriétés de conciliation.</t>
   </si>
   <si>
     <t>Cette *Composition* comporte 3 &lt;*section*\&gt; et 3 seulement :
 1. La référence au Bilan Médicamenteux, une ressource *Composition* profilée *fr-medication-history-composition*
-2. La référence à l'OMA, une ressource *Composition* profilée *fr-on-adsmission-medication-composition*
+2. La référence au Traitement Médicamenteux Courant, une ressource *Composition* profilée *fr-current-medication-composition*
 3.  La liste des traitements médicamenteux conciliés avec chacune ses propriétés de conciliation, une &lt;*entry*\&gt; (de cette 3ème section) par ligne de traitement référençant une ressource *MedicationStatement* profilée *fr-medication-reconciliation-medication-statement*</t>
   </si>
   <si>
@@ -3669,10 +3669,10 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S13" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>19</v>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T08:58:20+00:00</t>
+    <t>2025-07-11T09:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:01:56+00:00</t>
+    <t>2025-07-11T11:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:49:25+00:00</t>
+    <t>2025-07-11T11:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:55:35+00:00</t>
+    <t>2025-07-11T12:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:03:33+00:00</t>
+    <t>2025-07-11T12:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:06:27+00:00</t>
+    <t>2025-07-11T12:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:29:53+00:00</t>
+    <t>2025-07-11T12:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:36:09+00:00</t>
+    <t>2025-07-11T12:44:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:44:15+00:00</t>
+    <t>2025-07-11T12:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:52:14+00:00</t>
+    <t>2025-07-11T13:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T13:00:29+00:00</t>
+    <t>2025-07-15T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T07:25:49+00:00</t>
+    <t>2025-07-18T11:27:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:27:43+00:00</t>
+    <t>2025-07-18T11:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:28:48+00:00</t>
+    <t>2025-07-18T11:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:43:48+00:00</t>
+    <t>2025-07-18T13:01:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:01:32+00:00</t>
+    <t>2025-07-18T13:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:25:27+00:00</t>
+    <t>2025-07-18T13:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:29:35+00:00</t>
+    <t>2025-07-18T13:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:32:21+00:00</t>
+    <t>2025-07-18T13:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:36:35+00:00</t>
+    <t>2025-07-18T14:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:10:10+00:00</t>
+    <t>2025-07-18T14:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:20:27+00:00</t>
+    <t>2025-07-18T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:22:51+00:00</t>
+    <t>2025-07-18T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:33:50+00:00</t>
+    <t>2025-07-21T08:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T08:56:18+00:00</t>
+    <t>2025-07-21T09:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:00:57+00:00</t>
+    <t>2025-07-21T09:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:13:17+00:00</t>
+    <t>2025-07-21T13:05:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:05:14+00:00</t>
+    <t>2025-07-21T13:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-review/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:09:46+00:00</t>
+    <t>2025-07-22T16:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
